--- a/Website Test Plan - Pokemon.xlsx
+++ b/Website Test Plan - Pokemon.xlsx
@@ -767,7 +767,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
